--- a/xlsx/Engineering management_intext.xlsx
+++ b/xlsx/Engineering management_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="527">
   <si>
     <t>Engineering management</t>
   </si>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E6%96%87%E6%96%AF%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>史蒂文斯理工學院</t>
+    <t>史蒂文斯理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>密蘇里科技大學</t>
+    <t>密苏里科技大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%9D%A6%E5%B8%83%E5%B0%94%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%A6</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>密西根理工大學</t>
+    <t>密西根理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E8%8A%AC%E5%85%B0%E7%BA%AA%E5%BF%B5%E5%A4%A7%E5%AD%A6</t>
@@ -215,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%96%B0</t>
   </si>
   <si>
-    <t>創新</t>
+    <t>创新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%94%A2%E5%93%81%E9%96%8B%E7%99%BC</t>
   </si>
   <si>
-    <t>新產品開發</t>
+    <t>新产品开发</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Product_engineering</t>
@@ -383,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>喬治華盛頓大學</t>
+    <t>乔治华盛顿大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>亞利桑那州立大學</t>
+    <t>亚利桑那州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%91%E9%93%81%E5%8D%A2%E5%A4%A7%E5%AD%A6</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E8%AB%AE%E8%A9%A2%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>波士頓諮詢公司</t>
+    <t>波士顿谘询公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%95%E9%A9%AC%E5%A8%81</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用科學</t>
+    <t>应用科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A%E5%B7%A5%E7%A8%8B</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%94%A2%E9%A4%8A%E6%AE%96</t>
   </si>
   <si>
-    <t>水產養殖</t>
+    <t>水产养殖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%BA%A7%E5%AD%A6</t>
@@ -671,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>食品化學</t>
+    <t>食品化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%B7%A5%E7%A8%8B</t>
@@ -737,13 +737,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康科學</t>
+    <t>健康科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%8C%96%E6%AA%A2%E9%A9%97</t>
   </si>
   <si>
-    <t>生化檢驗</t>
+    <t>生化检验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%AF%E7%90%86%E5%AD%A6</t>
@@ -797,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>建築</t>
+    <t>建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%88%A9%E5%B7%A5%E7%A8%8B</t>
@@ -839,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>結構工程</t>
+    <t>结构工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%8A%80%E6%9C%AF</t>
@@ -911,31 +911,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E8%97%A5</t>
   </si>
   <si>
-    <t>彈藥</t>
+    <t>弹药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%B8%E5%BD%88</t>
   </si>
   <si>
-    <t>炸彈</t>
+    <t>炸弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>軍事技術</t>
+    <t>军事技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>電子作戰</t>
+    <t>电子作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%8F%AF%E5%81%B5%E6%B8%AC%E6%80%A7%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>低可偵測性技術</t>
+    <t>低可侦测性技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B5</t>
@@ -965,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>計算機工程</t>
+    <t>计算机工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E4%B9%90%E5%B7%A5%E8%89%BA</t>
@@ -995,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>軟件工程</t>
+    <t>软件工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E4%B9%90%E6%8A%80%E6%9C%AF</t>
@@ -1091,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%A9%9F%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>電機工程學</t>
+    <t>电机工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E5%B7%A5%E7%A8%8B</t>
@@ -1103,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>工程技術</t>
+    <t>工程技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8A%9B%E5%AD%A6</t>
@@ -1145,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>運輸工程</t>
+    <t>运输工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%8A%A8%E6%9C%BA%E6%A2%B0%E5%AD%A6</t>
@@ -1163,7 +1163,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0</t>
   </si>
   <si>
-    <t>製造</t>
+    <t>制造</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E6%A2%B0</t>
@@ -1241,13 +1241,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>環境科技</t>
+    <t>环境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%86%8D%E7%94%9F%E8%83%BD%E6%BA%90</t>
@@ -1259,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>永續設計</t>
+    <t>永续设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%B7%A5%E7%A8%8B</t>
@@ -1271,7 +1271,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>生態工程</t>
+    <t>生态工程</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Clean_technology</t>
@@ -1331,7 +1331,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>微系統</t>
+    <t>微系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E6%8A%80%E6%9C%AF</t>
@@ -1367,13 +1367,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A4%8E%E8%A8%AD%E6%96%BD</t>
   </si>
   <si>
-    <t>基礎設施</t>
+    <t>基础设施</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E6%98%8E</t>
   </si>
   <si>
-    <t>發明</t>
+    <t>发明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E6%98%8E%E5%B9%B4%E8%A1%A8</t>
@@ -1385,13 +1385,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98</t>
   </si>
   <si>
-    <t>知識</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>機器</t>
+    <t>机器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%83%BD</t>
@@ -1427,7 +1424,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>工業革命</t>
+    <t>工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
@@ -1439,13 +1436,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%97%E5%8C%96%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>數字化革命</t>
+    <t>数字化革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>第三次工業革命</t>
+    <t>第三次工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%97%B6%E4%BB%A3</t>
@@ -1499,7 +1496,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E5%A3%9E%E6%80%A7%E5%89%B5%E6%96%B0</t>
   </si>
   <si>
-    <t>破壞性創新</t>
+    <t>破坏性创新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%A7%91%E6%8A%80</t>
@@ -1529,7 +1526,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93%E5%AE%98%E5%83%9A</t>
   </si>
   <si>
-    <t>技術官僚</t>
+    <t>技术官僚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF%E5%A5%87%E5%BC%82%E7%82%B9</t>
@@ -1571,7 +1568,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E6%8A%80%E8%A1%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>新興技術列表</t>
+    <t>新兴技术列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E8%BE%BE%E8%82%96%E5%A4%AB%E6%8C%87%E6%95%B0</t>
@@ -8668,7 +8665,7 @@
         <v>455</v>
       </c>
       <c r="F232" t="s">
-        <v>456</v>
+        <v>168</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8694,10 +8691,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>456</v>
+      </c>
+      <c r="F233" t="s">
         <v>457</v>
-      </c>
-      <c r="F233" t="s">
-        <v>458</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8723,10 +8720,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>458</v>
+      </c>
+      <c r="F234" t="s">
         <v>459</v>
-      </c>
-      <c r="F234" t="s">
-        <v>460</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8752,10 +8749,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>460</v>
+      </c>
+      <c r="F235" t="s">
         <v>461</v>
-      </c>
-      <c r="F235" t="s">
-        <v>462</v>
       </c>
       <c r="G235" t="n">
         <v>4</v>
@@ -8781,10 +8778,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>462</v>
+      </c>
+      <c r="F236" t="s">
         <v>463</v>
-      </c>
-      <c r="F236" t="s">
-        <v>464</v>
       </c>
       <c r="G236" t="n">
         <v>4</v>
@@ -8810,10 +8807,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>464</v>
+      </c>
+      <c r="F237" t="s">
         <v>465</v>
-      </c>
-      <c r="F237" t="s">
-        <v>466</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8839,10 +8836,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>466</v>
+      </c>
+      <c r="F238" t="s">
         <v>467</v>
-      </c>
-      <c r="F238" t="s">
-        <v>468</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8868,10 +8865,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>468</v>
+      </c>
+      <c r="F239" t="s">
         <v>469</v>
-      </c>
-      <c r="F239" t="s">
-        <v>470</v>
       </c>
       <c r="G239" t="n">
         <v>3</v>
@@ -8897,10 +8894,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>470</v>
+      </c>
+      <c r="F240" t="s">
         <v>471</v>
-      </c>
-      <c r="F240" t="s">
-        <v>472</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8926,10 +8923,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>472</v>
+      </c>
+      <c r="F241" t="s">
         <v>473</v>
-      </c>
-      <c r="F241" t="s">
-        <v>474</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8955,10 +8952,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>474</v>
+      </c>
+      <c r="F242" t="s">
         <v>475</v>
-      </c>
-      <c r="F242" t="s">
-        <v>476</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8984,10 +8981,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>476</v>
+      </c>
+      <c r="F243" t="s">
         <v>477</v>
-      </c>
-      <c r="F243" t="s">
-        <v>478</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9013,10 +9010,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>478</v>
+      </c>
+      <c r="F244" t="s">
         <v>479</v>
-      </c>
-      <c r="F244" t="s">
-        <v>480</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9042,10 +9039,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>480</v>
+      </c>
+      <c r="F245" t="s">
         <v>481</v>
-      </c>
-      <c r="F245" t="s">
-        <v>482</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9071,10 +9068,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>482</v>
+      </c>
+      <c r="F246" t="s">
         <v>483</v>
-      </c>
-      <c r="F246" t="s">
-        <v>484</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9100,10 +9097,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>484</v>
+      </c>
+      <c r="F247" t="s">
         <v>485</v>
-      </c>
-      <c r="F247" t="s">
-        <v>486</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9129,10 +9126,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>486</v>
+      </c>
+      <c r="F248" t="s">
         <v>487</v>
-      </c>
-      <c r="F248" t="s">
-        <v>488</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9158,10 +9155,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>488</v>
+      </c>
+      <c r="F249" t="s">
         <v>489</v>
-      </c>
-      <c r="F249" t="s">
-        <v>490</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9187,10 +9184,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>490</v>
+      </c>
+      <c r="F250" t="s">
         <v>491</v>
-      </c>
-      <c r="F250" t="s">
-        <v>492</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9216,10 +9213,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>492</v>
+      </c>
+      <c r="F251" t="s">
         <v>493</v>
-      </c>
-      <c r="F251" t="s">
-        <v>494</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9245,10 +9242,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>494</v>
+      </c>
+      <c r="F252" t="s">
         <v>495</v>
-      </c>
-      <c r="F252" t="s">
-        <v>496</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9274,10 +9271,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>496</v>
+      </c>
+      <c r="F253" t="s">
         <v>497</v>
-      </c>
-      <c r="F253" t="s">
-        <v>498</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9303,10 +9300,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>498</v>
+      </c>
+      <c r="F254" t="s">
         <v>499</v>
-      </c>
-      <c r="F254" t="s">
-        <v>500</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9332,10 +9329,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>500</v>
+      </c>
+      <c r="F255" t="s">
         <v>501</v>
-      </c>
-      <c r="F255" t="s">
-        <v>502</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9361,10 +9358,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>502</v>
+      </c>
+      <c r="F256" t="s">
         <v>503</v>
-      </c>
-      <c r="F256" t="s">
-        <v>504</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9390,10 +9387,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>504</v>
+      </c>
+      <c r="F257" t="s">
         <v>505</v>
-      </c>
-      <c r="F257" t="s">
-        <v>506</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9419,10 +9416,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>506</v>
+      </c>
+      <c r="F258" t="s">
         <v>507</v>
-      </c>
-      <c r="F258" t="s">
-        <v>508</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9448,10 +9445,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>508</v>
+      </c>
+      <c r="F259" t="s">
         <v>509</v>
-      </c>
-      <c r="F259" t="s">
-        <v>510</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9477,10 +9474,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>510</v>
+      </c>
+      <c r="F260" t="s">
         <v>511</v>
-      </c>
-      <c r="F260" t="s">
-        <v>512</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9506,10 +9503,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>512</v>
+      </c>
+      <c r="F261" t="s">
         <v>513</v>
-      </c>
-      <c r="F261" t="s">
-        <v>514</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9535,10 +9532,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>514</v>
+      </c>
+      <c r="F262" t="s">
         <v>515</v>
-      </c>
-      <c r="F262" t="s">
-        <v>516</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9564,10 +9561,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>516</v>
+      </c>
+      <c r="F263" t="s">
         <v>517</v>
-      </c>
-      <c r="F263" t="s">
-        <v>518</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9593,10 +9590,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>518</v>
+      </c>
+      <c r="F264" t="s">
         <v>519</v>
-      </c>
-      <c r="F264" t="s">
-        <v>520</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9622,10 +9619,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>520</v>
+      </c>
+      <c r="F265" t="s">
         <v>521</v>
-      </c>
-      <c r="F265" t="s">
-        <v>522</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9651,10 +9648,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>522</v>
+      </c>
+      <c r="F266" t="s">
         <v>523</v>
-      </c>
-      <c r="F266" t="s">
-        <v>524</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9680,10 +9677,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>524</v>
+      </c>
+      <c r="F267" t="s">
         <v>525</v>
-      </c>
-      <c r="F267" t="s">
-        <v>526</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -9709,10 +9706,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F268" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G268" t="n">
         <v>3</v>
